--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T13:39:31+00:00</t>
+    <t>2023-10-13T13:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T13:51:42+00:00</t>
+    <t>2023-10-13T14:07:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T14:07:21+00:00</t>
+    <t>2023-10-13T14:16:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T14:16:38+00:00</t>
+    <t>2023-10-13T14:31:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T14:31:16+00:00</t>
+    <t>2023-10-13T14:44:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T14:44:35+00:00</t>
+    <t>2023-10-14T10:09:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
+++ b/ig/nr-add-mapping/StructureDefinition-gap-fr-schedule.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:09:06+00:00</t>
+    <t>2023-10-14T10:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
